--- a/example_data/virheita.xlsx
+++ b/example_data/virheita.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t xml:space="preserve">Toissijainen ehto, jonka viittausta E1 ei ole määritelty edellä ehtona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3 OR A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toissijainen ehto, jonka viittaukset löytyvät mutta sijainnit niille eivät; Ääkköslandia 1:lle ei ole määritelty A3:sta tai A4:sta. Sen sijaan pitäisi lukea “sipoo_itaan#A3” jne.</t>
   </si>
 </sst>
 </file>
@@ -333,7 +342,9 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +460,9 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,16 +557,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,6 +783,20 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/example_data/virheita.xlsx
+++ b/example_data/virheita.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Toimiva_setti" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Virheet_taulukossa" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Syntaksivirheet" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Virheet_taulukossa" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Syntaksivirheet" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -30,97 +29,76 @@
     <t xml:space="preserve">end</t>
   </si>
   <si>
+    <t xml:space="preserve">Tämä taulukko on virheellisesti muotoiltu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start-päivämäärä puuttuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master_alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sipoo itään</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1120#keli_1 = 8 AND s1120#tie_1 &lt; -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Toimiva ehto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sipoo länteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master_alias puuttuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyhjän rivin välissä pitäisi aiheuttaa virhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ääkköslandia 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1115#NAKYVYYS_METRIA &gt;= 300 AND s1115#NAKYVYYS_METRIA &lt; 600 AND D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.2018</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarakkeita D → ei lueta, joten niihin voi vapaasti laittaa esim. kommentteja. Ne eivät kuitenkaan tule mukaan tulos-Exceliin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sipoo itään</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1120#keli_1 = 8 AND s1120#tie_1 &lt; -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normaali ehto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ääkköslandia 1</t>
+    <t xml:space="preserve">Sipoo itään ja tämä on niin pitkä nimi sijainnille ettei se kelpaa sillä 40 merkin raja ylittyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liian pitkä site-nimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liian_pitkä_master_alias_ei_kelpaa_jos_merkkimääräraja_ylittyy_vaikkapa_tähän_tapaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liian pitkä master_alias</t>
   </si>
   <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
     <t xml:space="preserve">(s1115#KELI_1 in (1,2,3,4,5) AND s1120#KELI_1 in (1,2,3,4,5) AND s1122#TIENPINNAN_TILA3 in (1,2,3,4,5)) OR ((s1115#KELI_1 = 8 AND s1115#TIE_1 &gt;= 2) OR (s1120#KELI_1 = 8 AND s1120#TIE_1 &gt;= 2)) AND (s1122#KITKA3_LUKU &gt;= 0.4 OR s1115#TIE_1 &gt;= 2) AND (s1115#SADE in (0,1) OR (s1115#SADE = 2 AND s1115#KELI_1 in (1,2))) AND (s1115#NAKYVYYS_METRIA &gt;= 600) AND (s1115#KESKITUULI &lt; 12 OR s1115#MAKSIMITUULI &lt; 17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitkä ehto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1115#NAKYVYYS_METRIA &gt;= 300 AND s1115#NAKYVYYS_METRIA &lt; 600 AND D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekaehto, jossa ensisijainen osa ja lopussa toissijainen osa eli viittaus D1-ehtoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yhdistelmä</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1 AND (D1 OR D2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toissijainen ehto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tämä taulukko on virheellisesti muotoiltu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start-päivämäärä puuttuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Toimiva ehto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sipoo länteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master_alias puuttuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyhjän rivin välissä pitäisi aiheuttaa virhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sipoo itään ja tämä on niin pitkä nimi sijainnille ettei se kelpaa sillä 40 merkin raja ylittyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liian pitkä site-nimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liian_pitkä_master_alias_ei_kelpaa_jos_merkkimääräraja_ylittyy_vaikkapa_tähän_tapaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liian pitkä master_alias</t>
   </si>
   <si>
     <t xml:space="preserve">Tämä on OK…</t>
@@ -335,125 +313,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -474,7 +334,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,18 +343,18 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,28 +368,28 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
@@ -538,7 +398,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -552,14 +412,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +442,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -591,21 +451,21 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -614,49 +474,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,13 +552,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,69 +594,69 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
